--- a/Modul Quantitative Methoden II_Termine.xlsx
+++ b/Modul Quantitative Methoden II_Termine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/Statistik_II_Folien_WS24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/Statistik_II_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2E84D-38ED-6E43-89D6-014132AFC384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E49B0-BBCA-A548-A998-066C9713F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="780" windowWidth="29400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Einheit</t>
   </si>
@@ -70,7 +70,31 @@
     <t>Robuste Tests</t>
   </si>
   <si>
-    <t>Freie Spitze</t>
+    <t xml:space="preserve">17.04.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.04.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.05.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.05.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.05.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.06.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.06.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.06.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.07.2025	</t>
   </si>
 </sst>
 </file>
@@ -82,7 +106,7 @@
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,6 +131,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +177,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -365,10 +396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -376,7 +407,7 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,123 +418,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>45581</v>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>45588</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>45602</v>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>45609</v>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>45616</v>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>45623</v>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>45630</v>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>45637</v>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>45644</v>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>45665</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>45672</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
@@ -512,32 +539,17 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <v>45679</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>45686</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>45693</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Modul Quantitative Methoden II_Termine.xlsx
+++ b/Modul Quantitative Methoden II_Termine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Quantitative Methoden II/VO_Statistik II/Statistik_II_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E49B0-BBCA-A548-A998-066C9713F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78108A3-5384-5D4A-A798-1552E1B559CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="1480" windowWidth="29400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Einheit</t>
   </si>
@@ -95,16 +95,20 @@
   </si>
   <si>
     <t xml:space="preserve">17.07.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.07.2025	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07.2025	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m\.yy"/>
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -160,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -170,12 +174,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -399,7 +397,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -511,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -521,7 +519,9 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
@@ -530,7 +530,9 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
@@ -539,7 +541,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
@@ -548,7 +550,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
